--- a/src/main/webapp/excel/MasterCheckList.xlsx
+++ b/src/main/webapp/excel/MasterCheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bpass\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BPAAS WorkSpace\Project Ecom\ecom-vendor-portal-v2\src\main\webapp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,96 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Line Haul</t>
-  </si>
-  <si>
-    <t>agreement_expiry_date</t>
-  </si>
-  <si>
-    <t>agreement_made_date</t>
-  </si>
-  <si>
-    <t>base_rate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>city</t>
   </si>
   <si>
-    <t>credit_period_in_days</t>
-  </si>
-  <si>
-    <t>current_fuel_rate</t>
-  </si>
-  <si>
-    <t>max_kms</t>
-  </si>
-  <si>
     <t>rate</t>
   </si>
   <si>
     <t>route</t>
   </si>
   <si>
-    <t>std_mileage_per_km</t>
-  </si>
-  <si>
-    <t>trip_cost</t>
-  </si>
-  <si>
-    <t>trip_details</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>vehicle_type</t>
-  </si>
-  <si>
-    <t>vendor_code</t>
-  </si>
-  <si>
-    <t>vendor_name</t>
-  </si>
-  <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>city_name</t>
-  </si>
-  <si>
-    <t>fixed_km</t>
-  </si>
-  <si>
-    <t>fs_diff</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
-    <t>BGH</t>
-  </si>
-  <si>
-    <t>Bhagalpur</t>
-  </si>
-  <si>
-    <t>BGH-GPH-BH4</t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>22Ft.</t>
-  </si>
-  <si>
-    <t>V002353</t>
-  </si>
-  <si>
-    <t>Zast Logisolutions Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>45 Days</t>
+    <t>vendorName</t>
+  </si>
+  <si>
+    <t>vendorCode</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>vehicleType</t>
+  </si>
+  <si>
+    <t>tripCost</t>
+  </si>
+  <si>
+    <t>baseRate</t>
+  </si>
+  <si>
+    <t>stdMileagePerKm</t>
+  </si>
+  <si>
+    <t>maxKms</t>
+  </si>
+  <si>
+    <t>currentFuelRate</t>
+  </si>
+  <si>
+    <t>fsDiff</t>
+  </si>
+  <si>
+    <t>agreementMadeDate</t>
+  </si>
+  <si>
+    <t>agreementExpiryDate</t>
   </si>
 </sst>
 </file>
@@ -121,8 +82,9 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,11 +99,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,20 +111,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -440,164 +417,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="2">
-        <v>44699</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43604</v>
-      </c>
-      <c r="C2" s="1">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>97.09</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1340</v>
-      </c>
-      <c r="I2" s="1">
-        <v>22.09</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1340</v>
-      </c>
-      <c r="K2" s="1">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>32160</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/excel/MasterCheckList.xlsx
+++ b/src/main/webapp/excel/MasterCheckList.xlsx
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -88,6 +88,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,9 +136,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15"/>
@@ -482,6 +491,13 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="F4" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
